--- a/StructureDefinition-emr-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-emr-lab-diagnostic-report.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$37</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="317">
   <si>
     <t>Path</t>
   </si>
@@ -441,7 +441,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
+    <t>http://openhie.org/fhir/ValueSet/emr-lab-diagnostic-report-status-vs</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -525,6 +525,95 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/ValueSet/emr-lab-order-code-vs</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>DiagnosticReport.subject</t>
   </si>
   <si>
@@ -742,7 +831,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-observation)
 </t>
   </si>
   <si>
@@ -809,25 +898,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1089,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1122,10 +1193,10 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.54296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.28515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2545,9 +2616,7 @@
       <c r="W13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
         <v>135</v>
       </c>
@@ -2820,7 +2889,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2836,21 +2905,19 @@
         <v>43</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>43</v>
       </c>
@@ -2898,7 +2965,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2910,35 +2977,35 @@
         <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>43</v>
@@ -2947,23 +3014,21 @@
         <v>43</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>43</v>
       </c>
@@ -2999,16 +3064,16 @@
         <v>43</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>172</v>
@@ -3017,41 +3082,41 @@
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>182</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>43</v>
@@ -3063,19 +3128,19 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -3100,13 +3165,11 @@
         <v>43</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>43</v>
@@ -3124,13 +3187,13 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>43</v>
@@ -3139,25 +3202,25 @@
         <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>193</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3176,19 +3239,19 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -3237,7 +3300,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3255,29 +3318,29 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>43</v>
@@ -3289,19 +3352,17 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>43</v>
@@ -3350,13 +3411,13 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>43</v>
@@ -3365,32 +3426,32 @@
         <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>43</v>
@@ -3402,19 +3463,19 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>43</v>
@@ -3463,13 +3524,13 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>43</v>
@@ -3478,32 +3539,32 @@
         <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>43</v>
@@ -3512,22 +3573,22 @@
         <v>43</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>43</v>
@@ -3576,13 +3637,13 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>43</v>
@@ -3591,32 +3652,32 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>43</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
@@ -3625,22 +3686,22 @@
         <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>43</v>
@@ -3689,13 +3750,13 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>43</v>
@@ -3707,22 +3768,22 @@
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>43</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3738,21 +3799,23 @@
         <v>43</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>43</v>
       </c>
@@ -3800,7 +3863,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3815,25 +3878,25 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>43</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3852,7 +3915,7 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>246</v>
@@ -3860,9 +3923,11 @@
       <c r="L25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -3911,7 +3976,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3926,16 +3991,16 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>43</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -3951,7 +4016,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>43</v>
@@ -3963,16 +4028,20 @@
         <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4020,28 +4089,28 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4049,11 +4118,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4072,18 +4141,20 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
       </c>
@@ -4143,16 +4214,16 @@
         <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4160,11 +4231,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4177,26 +4248,24 @@
         <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4244,7 +4313,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4256,7 +4325,7 @@
         <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>43</v>
@@ -4265,7 +4334,7 @@
         <v>43</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4273,18 +4342,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>43</v>
@@ -4293,22 +4362,20 @@
         <v>43</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4357,13 +4424,13 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>43</v>
@@ -4375,10 +4442,10 @@
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4386,7 +4453,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4394,7 +4461,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>
@@ -4406,16 +4473,16 @@
         <v>43</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4466,10 +4533,10 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>52</v>
@@ -4478,7 +4545,7 @@
         <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>43</v>
@@ -4487,7 +4554,7 @@
         <v>43</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4495,18 +4562,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>43</v>
@@ -4518,18 +4585,18 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -4577,28 +4644,28 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -4610,7 +4677,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4623,22 +4690,26 @@
         <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
       </c>
@@ -4662,31 +4733,31 @@
         <v>43</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4698,16 +4769,16 @@
         <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>286</v>
+        <v>95</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -4715,7 +4786,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4726,7 +4797,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>43</v>
@@ -4738,19 +4809,19 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -4799,13 +4870,13 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>43</v>
@@ -4817,17 +4888,459 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="K34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM33">
+  <autoFilter ref="A1:AM37">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4837,7 +5350,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI32">
+  <conditionalFormatting sqref="A2:AI36">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-emr-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-emr-lab-diagnostic-report.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="348">
   <si>
     <t>Path</t>
   </si>
@@ -147,6 +147,9 @@
     <t>*</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -178,9 +181,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">string
 </t>
   </si>
@@ -438,10 +438,13 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
+    <t>final</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/emr-lab-diagnostic-report-status-vs</t>
+    <t>http://i-tech-uw.github.io/emr-lis-ig/ValueSet/emr-lab-diagnostic-report-status-vs</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -459,522 +462,620 @@
     <t>DiagnosticReport.category</t>
   </si>
   <si>
-    <t>Department
-Sub-departmentServiceDiscipline</t>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
+  </si>
+  <si>
+    <t>Concept - reference to a terminology or just  text</t>
+  </si>
+  <si>
+    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {http://hl7.org/fhir/uv/ips/StructureDefinition/Coding-uv-ips}
+</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://i-tech-uw.github.io/emr-lis-ig/ValueSet/emr-lab-order-code-vs</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>The text should be at the displayName level and not on this level.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Patient-uv-ips|Group)
+</t>
+  </si>
+  <si>
+    <t>The subject of the report - usually, but not always, the patient</t>
+  </si>
+  <si>
+    <t>The subject of the report. Usually, but not always, this is a patient. However, diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
+  </si>
+  <si>
+    <t>SHALL know the subject context.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Health care event when test ordered</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) which this DiagnosticReport is about.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>Links the request to the Encounter context.</t>
+  </si>
+  <si>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective[x]</t>
+  </si>
+  <si>
+    <t>Observation time
+Effective TimeOccurrence</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for report</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>
+  </si>
+  <si>
+    <t>Need to know where in the patient history to file/present this report.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBR-7</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective[x].id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective[x].extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>effective[x] absence reason</t>
+  </si>
+  <si>
+    <t>Provides a reason why the effectiveTime is missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.issued</t>
+  </si>
+  <si>
+    <t>Date published
+Date IssuedDate Verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>DateTime this version was made</t>
+  </si>
+  <si>
+    <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
+  </si>
+  <si>
+    <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.</t>
+  </si>
+  <si>
+    <t>Clinicians need to be able to check the date that the report was released.</t>
+  </si>
+  <si>
+    <t>OBR-22</t>
+  </si>
+  <si>
+    <t>participation[typeCode=VRF or AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer</t>
+  </si>
+  <si>
+    <t>Laboratory
+ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Practitioner-uv-ips|http://hl7.org/fhir/uv/ips/StructureDefinition/PractitionerRole-uv-ips|http://hl7.org/fhir/uv/ips/StructureDefinition/Organization-uv-ips|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>Responsible Diagnostic Service</t>
+  </si>
+  <si>
+    <t>The diagnostic service that is responsible for issuing the report.</t>
+  </si>
+  <si>
+    <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.</t>
+  </si>
+  <si>
+    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.resultsInterpreter</t>
+  </si>
+  <si>
+    <t>Analyzed by
+Reported by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>Primary result interpreter</t>
+  </si>
+  <si>
+    <t>The practitioner or organization that is responsible for the report's conclusions and interpretations.</t>
+  </si>
+  <si>
+    <t>Might not be the same entity that takes responsibility for the clinical report.</t>
+  </si>
+  <si>
+    <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Specimen-uv-ips)
+</t>
+  </si>
+  <si>
+    <t>Specimens this report is based on</t>
+  </si>
+  <si>
+    <t>Details about the specimens on which this diagnostic report is based.</t>
+  </si>
+  <si>
+    <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.</t>
+  </si>
+  <si>
+    <t>Need to be able to report information about the collected specimens on which the report is based.</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.result</t>
+  </si>
+  <si>
+    <t>Data
+Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/emr-lis-ig/StructureDefinition/emr-lab-observation)
+</t>
+  </si>
+  <si>
+    <t>Observation results included in the diagnostic report.</t>
+  </si>
+  <si>
+    <t>Observations can contain observations.</t>
+  </si>
+  <si>
+    <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile:$this.resolve()}
+</t>
+  </si>
+  <si>
+    <t>OBXs</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=COMP].target</t>
+  </si>
+  <si>
+    <t>observation-results</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>[Observations](http://hl7.org/fhir/R4/observation.html)  that are part of this diagnostic report.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.imagingStudy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Reference to full details of imaging associated with the diagnostic report</t>
+  </si>
+  <si>
+    <t>One or more links to full details of any imaging performed during the diagnostic investigation. Typically, this is imaging performed by DICOM enabled modalities, but this is not required. A fully enabled PACS viewer can use this information to provide views of the source images.</t>
+  </si>
+  <si>
+    <t>ImagingStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However, each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media</t>
+  </si>
+  <si>
+    <t>DICOM
+SlidesScans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Key images associated with this report</t>
+  </si>
+  <si>
+    <t>A list of key images associated with this report. The images are generally created during the diagnostic process, and may be directly of the patient, or of treated specimens (i.e. slides of interest).</t>
+  </si>
+  <si>
+    <t>Many diagnostic services include images in the report as part of their service.</t>
+  </si>
+  <si>
+    <t>OBX?</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.comment</t>
+  </si>
+  <si>
+    <t>Comment about the image (e.g. explanation)</t>
+  </si>
+  <si>
+    <t>A comment about the image. Typically, this is used to provide an explanation for why the image is included, or to draw the viewer's attention to important features.</t>
+  </si>
+  <si>
+    <t>The comment should be displayed with the image. It would be common for the report to include additional discussion of the image contents in other sections such as the conclusion.</t>
+  </si>
+  <si>
+    <t>The provider of the report should make a comment about each image included in the report.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Media)
+</t>
+  </si>
+  <si>
+    <t>Reference to the image source</t>
+  </si>
+  <si>
+    <t>Reference to the image source.</t>
+  </si>
+  <si>
+    <t>.value.reference</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.conclusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report
+</t>
+  </si>
+  <si>
+    <t>Clinical conclusion (interpretation) of test results</t>
+  </si>
+  <si>
+    <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide a conclusion that is not lost among the basic result data.</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode="SPRT"].source[classCode=OBS, moodCode=EVN, code=LOINC:48767-8].value (type=ST)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Service category</t>
-  </si>
-  <si>
-    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type
-</t>
-  </si>
-  <si>
-    <t>Name/Code for this diagnostic report</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/ValueSet/emr-lab-order-code-vs</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
-</t>
-  </si>
-  <si>
-    <t>The subject of the report - usually, but not always, the patient</t>
-  </si>
-  <si>
-    <t>The subject of the report. Usually, but not always, this is a patient. However, diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
-  </si>
-  <si>
-    <t>SHALL know the subject context.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Health care event when test ordered</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) which this DiagnosticReport is about.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter  but still be tied to the context of the encounter  (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>Links the request to the Encounter context.</t>
-  </si>
-  <si>
-    <t>Event.encounter</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.effective[x]</t>
-  </si>
-  <si>
-    <t>Observation time
-Effective TimeOccurrence</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for report</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>
-  </si>
-  <si>
-    <t>Need to know where in the patient history to file/present this report.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBR-7</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.issued</t>
-  </si>
-  <si>
-    <t>Date published
-Date IssuedDate Verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>DateTime this version was made</t>
-  </si>
-  <si>
-    <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
-  </si>
-  <si>
-    <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.</t>
-  </si>
-  <si>
-    <t>Clinicians need to be able to check the date that the report was released.</t>
-  </si>
-  <si>
-    <t>OBR-22</t>
-  </si>
-  <si>
-    <t>participation[typeCode=VRF or AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer</t>
-  </si>
-  <si>
-    <t>Laboratory
-ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
-</t>
-  </si>
-  <si>
-    <t>Responsible Diagnostic Service</t>
-  </si>
-  <si>
-    <t>The diagnostic service that is responsible for issuing the report.</t>
-  </si>
-  <si>
-    <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.</t>
-  </si>
-  <si>
-    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.resultsInterpreter</t>
-  </si>
-  <si>
-    <t>Analyzed by
-Reported by</t>
-  </si>
-  <si>
-    <t>Primary result interpreter</t>
-  </si>
-  <si>
-    <t>The practitioner or organization that is responsible for the report's conclusions and interpretations.</t>
-  </si>
-  <si>
-    <t>Might not be the same entity that takes responsibility for the clinical report.</t>
-  </si>
-  <si>
-    <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Specimens this report is based on</t>
-  </si>
-  <si>
-    <t>Details about the specimens on which this diagnostic report is based.</t>
-  </si>
-  <si>
-    <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.</t>
-  </si>
-  <si>
-    <t>Need to be able to report information about the collected specimens on which the report is based.</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.result</t>
-  </si>
-  <si>
-    <t>Data
-Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-observation)
-</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>[Observations](http://hl7.org/fhir/R4/observation.html)  that are part of this diagnostic report.</t>
-  </si>
-  <si>
-    <t>Observations can contain observations.</t>
-  </si>
-  <si>
-    <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.</t>
-  </si>
-  <si>
-    <t>OBXs</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=COMP].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.imagingStudy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Reference to full details of imaging associated with the diagnostic report</t>
-  </si>
-  <si>
-    <t>One or more links to full details of any imaging performed during the diagnostic investigation. Typically, this is imaging performed by DICOM enabled modalities, but this is not required. A fully enabled PACS viewer can use this information to provide views of the source images.</t>
-  </si>
-  <si>
-    <t>ImagingStudy and the image element are somewhat overlapping - typically, the list of image references in the image element will also be found in one of the imaging study resources. However, each caters to different types of displays for different types of purposes. Neither, either, or both may be provided.</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media</t>
-  </si>
-  <si>
-    <t>DICOM
-SlidesScans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Key images associated with this report</t>
-  </si>
-  <si>
-    <t>A list of key images associated with this report. The images are generally created during the diagnostic process, and may be directly of the patient, or of treated specimens (i.e. slides of interest).</t>
-  </si>
-  <si>
-    <t>Many diagnostic services include images in the report as part of their service.</t>
-  </si>
-  <si>
-    <t>OBX?</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.comment</t>
-  </si>
-  <si>
-    <t>Comment about the image (e.g. explanation)</t>
-  </si>
-  <si>
-    <t>A comment about the image. Typically, this is used to provide an explanation for why the image is included, or to draw the viewer's attention to important features.</t>
-  </si>
-  <si>
-    <t>The comment should be displayed with the image. It would be common for the report to include additional discussion of the image contents in other sections such as the conclusion.</t>
-  </si>
-  <si>
-    <t>The provider of the report should make a comment about each image included in the report.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Media)
-</t>
-  </si>
-  <si>
-    <t>Reference to the image source</t>
-  </si>
-  <si>
-    <t>Reference to the image source.</t>
-  </si>
-  <si>
-    <t>.value.reference</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report
-</t>
-  </si>
-  <si>
-    <t>Clinical conclusion (interpretation) of test results</t>
-  </si>
-  <si>
-    <t>Concise and clinically contextualized summary conclusion (interpretation/impression) of the diagnostic report.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide a conclusion that is not lost among the basic result data.</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode="SPRT"].source[classCode=OBS, moodCode=EVN, code=LOINC:48767-8].value (type=ST)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
     <t>Codes for the clinical conclusion of test results</t>
@@ -1160,7 +1261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1170,7 +1271,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1192,8 +1293,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.28515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.6171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1329,7 +1430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>39</v>
       </c>
@@ -1348,69 +1449,69 @@
         <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>39</v>
@@ -1422,47 +1523,47 @@
         <v>42</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>54</v>
@@ -1478,50 +1579,50 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>58</v>
@@ -1530,25 +1631,25 @@
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -1557,23 +1658,23 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>60</v>
@@ -1587,50 +1688,50 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>63</v>
@@ -1639,25 +1740,25 @@
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -1666,23 +1767,23 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>66</v>
@@ -1698,50 +1799,50 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>70</v>
@@ -1750,25 +1851,25 @@
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1777,23 +1878,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>72</v>
@@ -1809,26 +1910,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>76</v>
@@ -1840,19 +1941,19 @@
         <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>79</v>
@@ -1861,25 +1962,25 @@
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1895,16 +1996,16 @@
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>82</v>
@@ -1920,50 +2021,50 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>86</v>
@@ -1972,25 +2073,25 @@
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -2009,13 +2110,13 @@
         <v>42</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>90</v>
@@ -2031,50 +2132,50 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>94</v>
@@ -2086,22 +2187,22 @@
         <v>42</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -2120,13 +2221,13 @@
         <v>42</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>98</v>
@@ -2142,50 +2243,50 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>102</v>
@@ -2197,22 +2298,22 @@
         <v>42</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -2231,13 +2332,13 @@
         <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="I10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>98</v>
@@ -2255,50 +2356,50 @@
         <v>107</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>108</v>
@@ -2310,22 +2411,22 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -2344,13 +2445,13 @@
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>111</v>
@@ -2368,50 +2469,50 @@
         <v>115</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>109</v>
@@ -2423,7 +2524,7 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>64</v>
@@ -2457,13 +2558,13 @@
         <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>122</v>
@@ -2481,50 +2582,50 @@
         <v>126</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>120</v>
@@ -2536,7 +2637,7 @@
         <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>64</v>
@@ -2551,32 +2652,32 @@
         <v>129</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>72</v>
@@ -2592,100 +2693,100 @@
         <v>133</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>142</v>
@@ -2701,26 +2802,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>146</v>
@@ -2732,22 +2833,22 @@
         <v>148</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2756,245 +2857,247 @@
         <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>152</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3008,13 +3111,13 @@
         <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>98</v>
@@ -3023,60 +3126,60 @@
         <v>99</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>101</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3085,35 +3188,35 @@
         <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>42</v>
@@ -3122,72 +3225,72 @@
         <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3196,1341 +3299,1327 @@
         <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="I23" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>43</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>165</v>
@@ -4539,145 +4628,147 @@
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>43</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4690,74 +4781,74 @@
         <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4766,364 +4857,370 @@
         <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>43</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>43</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="C36" t="s" s="2">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5136,70 +5233,74 @@
         <v>43</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>308</v>
+        <v>44</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5208,31 +5309,31 @@
         <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5242,77 +5343,75 @@
         <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5321,26 +5420,1025 @@
         <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="J38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>43</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM37">
+  <autoFilter ref="A1:AM46">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5350,7 +6448,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
